--- a/CalculatorProject/data/add.xlsx
+++ b/CalculatorProject/data/add.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuwenbin\PycharmProjects\HogwartsSDET25\CalculatorProject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A3611C-3900-4EA6-BDAA-FE751C3BF20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43E70FA-471B-44D5-8A30-30830E24B556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -404,15 +404,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>展示提示信息</t>
+    <t>【类型】输入为空，给出提示信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>参数大小超出范围</t>
+    <t>【类型】输入空格，给出提示信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>【类型】输入为空，给出提示信息</t>
+    <t>TypeError</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -886,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1197,7 +1197,7 @@
         <v>22</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H13" s="4"/>
     </row>
@@ -1219,7 +1219,7 @@
         <v>23</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H14" s="4"/>
     </row>
@@ -1241,7 +1241,7 @@
         <v>25</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H15" s="4"/>
     </row>
@@ -1263,7 +1263,7 @@
         <v>26</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H16" s="4"/>
     </row>
@@ -1285,7 +1285,7 @@
         <v>28</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H17" s="4"/>
     </row>
@@ -1307,7 +1307,7 @@
         <v>29</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H18" s="4"/>
     </row>
@@ -1319,7 +1319,7 @@
         <v>8</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>46</v>
@@ -1329,7 +1329,7 @@
         <v>105</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H19" s="4"/>
     </row>
@@ -1341,7 +1341,7 @@
         <v>8</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>46</v>
@@ -1351,7 +1351,7 @@
         <v>32</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="H20" s="4"/>
     </row>
@@ -1363,7 +1363,7 @@
         <v>8</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>46</v>
@@ -1373,7 +1373,7 @@
         <v>34</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="H21" s="4"/>
     </row>
@@ -1395,13 +1395,14 @@
         <v>35</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="H22" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/CalculatorProject/data/add.xlsx
+++ b/CalculatorProject/data/add.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuwenbin\PycharmProjects\HogwartsSDET25\CalculatorProject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43E70FA-471B-44D5-8A30-30830E24B556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCE0AAF-71DC-4CD1-88FB-B597C09B25C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="112">
   <si>
     <t>编号</t>
   </si>
@@ -399,20 +399,71 @@
     <t>参数大小超出范围</t>
   </si>
   <si>
-    <t>1. 第一个数不输入
+    <t>【类型】输入为空，给出提示信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【类型】输入空格，给出提示信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeError</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 第一个数不输入：
 2. 第二个数输入：20.93</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>【类型】输入为空，给出提示信息</t>
+    <t>1. 第一个数输入：-3
+2. 第二个数不输入：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>【类型】输入空格，给出提示信息</t>
+    <r>
+      <t>1. 第一个数输入：-90
+2. 第二个数输入：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TypeError</t>
+    <r>
+      <t>1. 第一个数输入：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2. 第二个数输入：3.14</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -887,7 +938,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1197,7 +1248,7 @@
         <v>22</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H13" s="4"/>
     </row>
@@ -1219,7 +1270,7 @@
         <v>23</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H14" s="4"/>
     </row>
@@ -1241,7 +1292,7 @@
         <v>25</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H15" s="4"/>
     </row>
@@ -1263,7 +1314,7 @@
         <v>26</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H16" s="4"/>
     </row>
@@ -1285,7 +1336,7 @@
         <v>28</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H17" s="4"/>
     </row>
@@ -1307,7 +1358,7 @@
         <v>29</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H18" s="4"/>
     </row>
@@ -1319,17 +1370,17 @@
         <v>8</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>46</v>
       </c>
       <c r="E19" s="4"/>
-      <c r="F19" s="5" t="s">
-        <v>105</v>
+      <c r="F19" s="7" t="s">
+        <v>108</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H19" s="4"/>
     </row>
@@ -1341,17 +1392,17 @@
         <v>8</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>46</v>
       </c>
       <c r="E20" s="4"/>
-      <c r="F20" s="5" t="s">
-        <v>32</v>
+      <c r="F20" s="7" t="s">
+        <v>109</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H20" s="4"/>
     </row>
@@ -1363,17 +1414,17 @@
         <v>8</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>46</v>
       </c>
       <c r="E21" s="4"/>
-      <c r="F21" s="5" t="s">
-        <v>34</v>
+      <c r="F21" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H21" s="4"/>
     </row>
@@ -1391,11 +1442,11 @@
         <v>46</v>
       </c>
       <c r="E22" s="4"/>
-      <c r="F22" s="5" t="s">
-        <v>35</v>
+      <c r="F22" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H22" s="4"/>
     </row>

--- a/CalculatorProject/data/add.xlsx
+++ b/CalculatorProject/data/add.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuwenbin\PycharmProjects\HogwartsSDET25\CalculatorProject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCE0AAF-71DC-4CD1-88FB-B597C09B25C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCED1471-8C82-44EF-84E5-6E40C6E0C889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="117">
   <si>
     <t>编号</t>
   </si>
@@ -49,23 +49,14 @@
   </si>
   <si>
     <t>加法</t>
-  </si>
-  <si>
-    <t>【正向】2个整数相加，结果计算正确</t>
   </si>
   <si>
     <t>1. 第一个数输入：1
 2. 第二个数输入：1</t>
   </si>
   <si>
-    <t>【正向】2个浮点数相加，结果计算正确</t>
-  </si>
-  <si>
     <t>1. 第一个数输入：-0.01
 2. 第二个数输入：0.02</t>
-  </si>
-  <si>
-    <t>【正向】整数与浮点数相加，结果计算正确</t>
   </si>
   <si>
     <t>1. 第一个数输入：10
@@ -464,6 +455,38 @@
       <t xml:space="preserve">
 2. 第二个数输入：3.14</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【正向】2个整数相加，结果计算正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【边界】有效边界值相加，结果计算正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【正向】2个浮点数相加，结果计算正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【正向】整数与浮点数相加，结果计算正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【边界】无效边界值相加，给出提示信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【类型】输入中文，给出提示信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【类型】输入英文，给出提示信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【类型】输入特殊字符，给出提示信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -602,7 +625,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -658,6 +681,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -938,7 +964,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -984,70 +1010,70 @@
     </row>
     <row r="2" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>9</v>
+      <c r="C2" s="7" t="s">
+        <v>109</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G2" s="4">
         <v>2</v>
       </c>
       <c r="H2" s="4"/>
       <c r="J2" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>11</v>
+      <c r="C3" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G3" s="4">
         <v>0.01</v>
       </c>
       <c r="H3" s="4"/>
       <c r="J3" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>13</v>
+      <c r="C4" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G4" s="4">
         <v>10.02</v>
@@ -1056,20 +1082,20 @@
     </row>
     <row r="5" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>15</v>
+      <c r="C5" s="19" t="s">
+        <v>110</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G5" s="4">
         <v>197.99</v>
@@ -1078,20 +1104,20 @@
     </row>
     <row r="6" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G6" s="4">
         <v>197.99</v>
@@ -1100,20 +1126,20 @@
     </row>
     <row r="7" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G7" s="4">
         <v>-197.99</v>
@@ -1122,20 +1148,20 @@
     </row>
     <row r="8" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G8" s="4">
         <v>-197.99</v>
@@ -1144,309 +1170,309 @@
     </row>
     <row r="9" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>16</v>
+      <c r="C9" s="19" t="s">
+        <v>113</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="18" t="s">
-        <v>21</v>
+      <c r="C13" s="19" t="s">
+        <v>114</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="18" t="s">
-        <v>24</v>
+      <c r="C15" s="19" t="s">
+        <v>115</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="18" t="s">
-        <v>27</v>
+      <c r="C17" s="19" t="s">
+        <v>116</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="18" t="s">
-        <v>105</v>
+      <c r="C19" s="19" t="s">
+        <v>102</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="18" t="s">
-        <v>106</v>
+      <c r="C21" s="19" t="s">
+        <v>103</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H21" s="4"/>
     </row>
     <row r="22" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H22" s="4"/>
     </row>
@@ -1473,25 +1499,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F1" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="15" t="s">
         <v>96</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1499,10 +1525,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1571,45 +1597,45 @@
     </row>
     <row r="2" spans="1:10" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" s="4">
         <v>1</v>
       </c>
       <c r="H2" s="4"/>
       <c r="J2" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G3" s="4">
         <v>0.5</v>
@@ -1619,20 +1645,20 @@
     </row>
     <row r="4" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G4" s="4">
         <v>-0.5</v>
@@ -1641,20 +1667,20 @@
     </row>
     <row r="5" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G5" s="4">
         <v>500</v>
@@ -1663,45 +1689,45 @@
     </row>
     <row r="6" spans="1:10" ht="43.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="11"/>
@@ -1709,21 +1735,21 @@
     </row>
     <row r="8" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="11"/>
@@ -1731,23 +1757,23 @@
     </row>
     <row r="9" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="11"/>
@@ -1755,21 +1781,21 @@
     </row>
     <row r="10" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="11"/>
@@ -1777,23 +1803,23 @@
     </row>
     <row r="11" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="11"/>
@@ -1801,21 +1827,21 @@
     </row>
     <row r="12" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="11"/>
@@ -1823,23 +1849,23 @@
     </row>
     <row r="13" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="11"/>
@@ -1847,21 +1873,21 @@
     </row>
     <row r="14" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="11"/>
@@ -1869,23 +1895,23 @@
     </row>
     <row r="15" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H15" s="12"/>
       <c r="I15" s="11"/>
@@ -1893,21 +1919,21 @@
     </row>
     <row r="16" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="11"/>
